--- a/mercados/inflacion_peru_exp.xlsx
+++ b/mercados/inflacion_peru_exp.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2705,6 +2705,17 @@
         <v>44713</v>
       </c>
     </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>5.16</v>
+      </c>
+      <c r="C212" s="2">
+        <v>44743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/inflacion_peru_exp.xlsx
+++ b/mercados/inflacion_peru_exp.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2716,6 +2716,17 @@
         <v>44743</v>
       </c>
     </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>5.1</v>
+      </c>
+      <c r="C213" s="2">
+        <v>44774</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/inflacion_peru_exp.xlsx
+++ b/mercados/inflacion_peru_exp.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2727,6 +2727,17 @@
         <v>44774</v>
       </c>
     </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>4.89</v>
+      </c>
+      <c r="C214" s="2">
+        <v>44805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/inflacion_peru_exp.xlsx
+++ b/mercados/inflacion_peru_exp.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2738,6 +2738,17 @@
         <v>44805</v>
       </c>
     </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>4.78</v>
+      </c>
+      <c r="C215" s="2">
+        <v>44835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/inflacion_peru_exp.xlsx
+++ b/mercados/inflacion_peru_exp.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2749,6 +2749,17 @@
         <v>44835</v>
       </c>
     </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>4.68</v>
+      </c>
+      <c r="C216" s="2">
+        <v>44866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/inflacion_peru_exp.xlsx
+++ b/mercados/inflacion_peru_exp.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2760,6 +2760,83 @@
         <v>44866</v>
       </c>
     </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>4.3</v>
+      </c>
+      <c r="C217" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>4.62</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>4.29</v>
+      </c>
+      <c r="C219" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>4.3</v>
+      </c>
+      <c r="C220" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>4.25</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>4.21</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>3.83</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
